--- a/whowherewhen/whowhenwhere_test_result_kecelakaan_evaluated.xlsx
+++ b/whowherewhen/whowhenwhere_test_result_kecelakaan_evaluated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PetaKabar\whowherewhen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AE6A8D-5EB6-46D0-A9CD-653D4096E9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1D445A-FAB9-4D1A-AC7F-754AC5BDD9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="604">
   <si>
     <t>who_n</t>
   </si>
@@ -4311,9 +4311,6 @@
     <t>Gentong, Anaga, Tasik, Saputro, Satuan Lalu Lintas Polres, Mobil, Lingkar Gentong, Pengemudi, AKP Anaga Budiharso</t>
   </si>
   <si>
-    <t>40/12/2022</t>
-  </si>
-  <si>
     <t>30/12/2022</t>
   </si>
   <si>
@@ -4371,9 +4368,6 @@
   </si>
   <si>
     <t>sutrisno</t>
-  </si>
-  <si>
-    <t>12/0-1/2022</t>
   </si>
   <si>
     <t>31/12/2022</t>
@@ -8676,11 +8670,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8985,8 +8980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W128" sqref="W128"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9153,7 +9148,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -12276,8 +12271,8 @@
       <c r="F47">
         <v>0</v>
       </c>
-      <c r="G47" t="s">
-        <v>197</v>
+      <c r="G47" s="2">
+        <v>44929</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -13493,19 +13488,19 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
+        <v>330</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64" t="s">
         <v>331</v>
       </c>
-      <c r="K64">
-        <v>1</v>
-      </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="M64" t="s">
+      <c r="N64" t="s">
         <v>332</v>
-      </c>
-      <c r="N64" t="s">
-        <v>333</v>
       </c>
       <c r="O64" t="s">
         <v>48</v>
@@ -13517,10 +13512,10 @@
         <v>0</v>
       </c>
       <c r="R64" t="s">
+        <v>331</v>
+      </c>
+      <c r="S64" t="s">
         <v>332</v>
-      </c>
-      <c r="S64" t="s">
-        <v>333</v>
       </c>
       <c r="T64" t="s">
         <v>48</v>
@@ -13532,39 +13527,39 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>334</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65" t="s">
         <v>335</v>
       </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65" t="s">
         <v>336</v>
       </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65" t="s">
-        <v>337</v>
-      </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K65">
         <v>1</v>
@@ -13603,12 +13598,12 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -13617,7 +13612,7 @@
         <v>0</v>
       </c>
       <c r="D66" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -13674,30 +13669,30 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>341</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>342</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67" t="s">
         <v>343</v>
-      </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="D67" t="s">
-        <v>344</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67" t="s">
-        <v>345</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -13715,10 +13710,10 @@
         <v>0</v>
       </c>
       <c r="M67" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N67" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="O67" t="s">
         <v>48</v>
@@ -13745,12 +13740,12 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -13759,7 +13754,7 @@
         <v>0</v>
       </c>
       <c r="D68" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -13786,10 +13781,10 @@
         <v>0</v>
       </c>
       <c r="M68" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N68" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O68" t="s">
         <v>60</v>
@@ -13804,7 +13799,7 @@
         <v>29</v>
       </c>
       <c r="S68" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="T68" t="s">
         <v>60</v>
@@ -13816,12 +13811,12 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -13830,7 +13825,7 @@
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -13857,7 +13852,7 @@
         <v>0</v>
       </c>
       <c r="M69" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="N69" t="s">
         <v>192</v>
@@ -13887,51 +13882,51 @@
         <v>1</v>
       </c>
       <c r="W69" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>356</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70" t="s">
+        <v>357</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70" t="s">
         <v>358</v>
       </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70" t="s">
+        <v>358</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70" t="s">
         <v>359</v>
       </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70" t="s">
+      <c r="N70" t="s">
         <v>360</v>
-      </c>
-      <c r="H70">
-        <v>1</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70" t="s">
-        <v>360</v>
-      </c>
-      <c r="K70">
-        <v>1</v>
-      </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
-      <c r="M70" t="s">
-        <v>361</v>
-      </c>
-      <c r="N70" t="s">
-        <v>362</v>
       </c>
       <c r="O70" t="s">
         <v>149</v>
@@ -13946,7 +13941,7 @@
         <v>29</v>
       </c>
       <c r="S70" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="T70" t="s">
         <v>149</v>
@@ -13958,83 +13953,83 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>362</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71" t="s">
+        <v>29</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71" t="s">
+        <v>363</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71" t="s">
+        <v>363</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71" t="s">
+        <v>29</v>
+      </c>
+      <c r="N71" t="s">
         <v>364</v>
       </c>
-      <c r="B71">
-        <v>0</v>
-      </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-      <c r="D71" t="s">
-        <v>29</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71" t="s">
+      <c r="O71" t="s">
         <v>365</v>
       </c>
-      <c r="H71">
-        <v>1</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71" t="s">
+      <c r="P71">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71" t="s">
+        <v>29</v>
+      </c>
+      <c r="S71" t="s">
+        <v>364</v>
+      </c>
+      <c r="T71" t="s">
         <v>365</v>
       </c>
-      <c r="K71">
-        <v>1</v>
-      </c>
-      <c r="L71">
-        <v>0</v>
-      </c>
-      <c r="M71" t="s">
-        <v>29</v>
-      </c>
-      <c r="N71" t="s">
+      <c r="U71">
+        <v>1</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
         <v>366</v>
-      </c>
-      <c r="O71" t="s">
-        <v>367</v>
-      </c>
-      <c r="P71">
-        <v>1</v>
-      </c>
-      <c r="Q71">
-        <v>0</v>
-      </c>
-      <c r="R71" t="s">
-        <v>29</v>
-      </c>
-      <c r="S71" t="s">
-        <v>366</v>
-      </c>
-      <c r="T71" t="s">
-        <v>367</v>
-      </c>
-      <c r="U71">
-        <v>1</v>
-      </c>
-      <c r="V71">
-        <v>0</v>
-      </c>
-      <c r="W71" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -14043,7 +14038,7 @@
         <v>0</v>
       </c>
       <c r="D72" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -14070,10 +14065,10 @@
         <v>0</v>
       </c>
       <c r="M72" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N72" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="O72" t="s">
         <v>171</v>
@@ -14088,7 +14083,7 @@
         <v>29</v>
       </c>
       <c r="S72" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="T72" t="s">
         <v>171</v>
@@ -14100,12 +14095,12 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -14114,7 +14109,7 @@
         <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -14171,12 +14166,12 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -14185,7 +14180,7 @@
         <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -14203,7 +14198,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="K74">
         <v>1</v>
@@ -14242,12 +14237,12 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -14256,7 +14251,7 @@
         <v>0</v>
       </c>
       <c r="D75" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -14283,7 +14278,7 @@
         <v>0</v>
       </c>
       <c r="M75" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="N75" t="s">
         <v>170</v>
@@ -14298,7 +14293,7 @@
         <v>0</v>
       </c>
       <c r="R75" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="S75" t="s">
         <v>170</v>
@@ -14313,12 +14308,12 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -14327,7 +14322,7 @@
         <v>0</v>
       </c>
       <c r="D76" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -14354,42 +14349,42 @@
         <v>0</v>
       </c>
       <c r="M76" t="s">
+        <v>386</v>
+      </c>
+      <c r="N76" t="s">
+        <v>387</v>
+      </c>
+      <c r="O76" t="s">
         <v>388</v>
       </c>
-      <c r="N76" t="s">
+      <c r="P76">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76" t="s">
+        <v>29</v>
+      </c>
+      <c r="S76" t="s">
+        <v>29</v>
+      </c>
+      <c r="T76" t="s">
+        <v>388</v>
+      </c>
+      <c r="U76">
+        <v>1</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
         <v>389</v>
-      </c>
-      <c r="O76" t="s">
-        <v>390</v>
-      </c>
-      <c r="P76">
-        <v>1</v>
-      </c>
-      <c r="Q76">
-        <v>0</v>
-      </c>
-      <c r="R76" t="s">
-        <v>29</v>
-      </c>
-      <c r="S76" t="s">
-        <v>29</v>
-      </c>
-      <c r="T76" t="s">
-        <v>390</v>
-      </c>
-      <c r="U76">
-        <v>1</v>
-      </c>
-      <c r="V76">
-        <v>0</v>
-      </c>
-      <c r="W76" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -14398,7 +14393,7 @@
         <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -14428,39 +14423,39 @@
         <v>29</v>
       </c>
       <c r="N77" t="s">
+        <v>392</v>
+      </c>
+      <c r="O77" t="s">
+        <v>393</v>
+      </c>
+      <c r="P77">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77" t="s">
+        <v>29</v>
+      </c>
+      <c r="S77" t="s">
+        <v>29</v>
+      </c>
+      <c r="T77" t="s">
+        <v>393</v>
+      </c>
+      <c r="U77">
+        <v>1</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
         <v>394</v>
-      </c>
-      <c r="O77" t="s">
-        <v>395</v>
-      </c>
-      <c r="P77">
-        <v>1</v>
-      </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="R77" t="s">
-        <v>29</v>
-      </c>
-      <c r="S77" t="s">
-        <v>29</v>
-      </c>
-      <c r="T77" t="s">
-        <v>395</v>
-      </c>
-      <c r="U77">
-        <v>1</v>
-      </c>
-      <c r="V77">
-        <v>0</v>
-      </c>
-      <c r="W77" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -14469,7 +14464,7 @@
         <v>0</v>
       </c>
       <c r="D78" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -14487,7 +14482,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K78">
         <v>1</v>
@@ -14526,48 +14521,48 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>399</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79" t="s">
+        <v>400</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79" t="s">
         <v>401</v>
       </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79" t="s">
         <v>402</v>
       </c>
-      <c r="E79">
-        <v>1</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79" t="s">
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79" t="s">
         <v>403</v>
-      </c>
-      <c r="H79">
-        <v>1</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79" t="s">
-        <v>404</v>
-      </c>
-      <c r="K79">
-        <v>1</v>
-      </c>
-      <c r="L79">
-        <v>0</v>
-      </c>
-      <c r="M79" t="s">
-        <v>405</v>
       </c>
       <c r="N79" t="s">
         <v>111</v>
@@ -14597,12 +14592,12 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -14611,7 +14606,7 @@
         <v>0</v>
       </c>
       <c r="D80" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -14668,12 +14663,12 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -14682,7 +14677,7 @@
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -14739,12 +14734,12 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -14753,7 +14748,7 @@
         <v>0</v>
       </c>
       <c r="D82" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -14762,7 +14757,7 @@
         <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -14810,12 +14805,12 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -14851,10 +14846,10 @@
         <v>0</v>
       </c>
       <c r="M83" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="N83" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="O83" t="s">
         <v>275</v>
@@ -14881,12 +14876,12 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -14895,7 +14890,7 @@
         <v>0</v>
       </c>
       <c r="D84" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -14922,10 +14917,10 @@
         <v>0</v>
       </c>
       <c r="M84" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="N84" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="O84" t="s">
         <v>48</v>
@@ -14940,7 +14935,7 @@
         <v>29</v>
       </c>
       <c r="S84" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="T84" t="s">
         <v>48</v>
@@ -14952,12 +14947,12 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -14966,7 +14961,7 @@
         <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -14975,28 +14970,28 @@
         <v>0</v>
       </c>
       <c r="G85" t="s">
+        <v>358</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85" t="s">
+        <v>358</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85" t="s">
+        <v>359</v>
+      </c>
+      <c r="N85" t="s">
         <v>360</v>
-      </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85" t="s">
-        <v>360</v>
-      </c>
-      <c r="K85">
-        <v>1</v>
-      </c>
-      <c r="L85">
-        <v>0</v>
-      </c>
-      <c r="M85" t="s">
-        <v>361</v>
-      </c>
-      <c r="N85" t="s">
-        <v>362</v>
       </c>
       <c r="O85" t="s">
         <v>149</v>
@@ -15023,12 +15018,12 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -15037,7 +15032,7 @@
         <v>0</v>
       </c>
       <c r="D86" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -15064,42 +15059,42 @@
         <v>0</v>
       </c>
       <c r="M86" t="s">
+        <v>428</v>
+      </c>
+      <c r="N86" t="s">
+        <v>429</v>
+      </c>
+      <c r="O86" t="s">
+        <v>427</v>
+      </c>
+      <c r="P86">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86" t="s">
+        <v>29</v>
+      </c>
+      <c r="S86" t="s">
+        <v>29</v>
+      </c>
+      <c r="T86" t="s">
+        <v>427</v>
+      </c>
+      <c r="U86">
+        <v>1</v>
+      </c>
+      <c r="V86">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
         <v>430</v>
-      </c>
-      <c r="N86" t="s">
-        <v>431</v>
-      </c>
-      <c r="O86" t="s">
-        <v>429</v>
-      </c>
-      <c r="P86">
-        <v>1</v>
-      </c>
-      <c r="Q86">
-        <v>0</v>
-      </c>
-      <c r="R86" t="s">
-        <v>29</v>
-      </c>
-      <c r="S86" t="s">
-        <v>29</v>
-      </c>
-      <c r="T86" t="s">
-        <v>429</v>
-      </c>
-      <c r="U86">
-        <v>1</v>
-      </c>
-      <c r="V86">
-        <v>0</v>
-      </c>
-      <c r="W86" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -15135,10 +15130,10 @@
         <v>0</v>
       </c>
       <c r="M87" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N87" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="O87" t="s">
         <v>48</v>
@@ -15165,66 +15160,66 @@
         <v>1</v>
       </c>
       <c r="W87" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
+        <v>433</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88" t="s">
+        <v>434</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88" t="s">
         <v>435</v>
       </c>
-      <c r="B88">
-        <v>1</v>
-      </c>
-      <c r="C88">
-        <v>0</v>
-      </c>
-      <c r="D88" t="s">
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88" t="s">
+        <v>435</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88" t="s">
+        <v>29</v>
+      </c>
+      <c r="N88" t="s">
         <v>436</v>
       </c>
-      <c r="E88">
-        <v>1</v>
-      </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
-      <c r="G88" t="s">
+      <c r="O88" t="s">
         <v>437</v>
       </c>
-      <c r="H88">
-        <v>1</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-      <c r="J88" t="s">
-        <v>437</v>
-      </c>
-      <c r="K88">
-        <v>1</v>
-      </c>
-      <c r="L88">
-        <v>0</v>
-      </c>
-      <c r="M88" t="s">
-        <v>29</v>
-      </c>
-      <c r="N88" t="s">
+      <c r="P88">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88" t="s">
+        <v>29</v>
+      </c>
+      <c r="S88" t="s">
         <v>438</v>
-      </c>
-      <c r="O88" t="s">
-        <v>439</v>
-      </c>
-      <c r="P88">
-        <v>1</v>
-      </c>
-      <c r="Q88">
-        <v>0</v>
-      </c>
-      <c r="R88" t="s">
-        <v>29</v>
-      </c>
-      <c r="S88" t="s">
-        <v>440</v>
       </c>
       <c r="T88" t="s">
         <v>54</v>
@@ -15236,122 +15231,122 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
+        <v>440</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89" t="s">
+        <v>441</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89" t="s">
+        <v>397</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89" t="s">
+        <v>397</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89" t="s">
+        <v>29</v>
+      </c>
+      <c r="N89" t="s">
+        <v>29</v>
+      </c>
+      <c r="O89" t="s">
+        <v>29</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89" t="s">
+        <v>29</v>
+      </c>
+      <c r="S89" t="s">
+        <v>29</v>
+      </c>
+      <c r="T89" t="s">
+        <v>29</v>
+      </c>
+      <c r="U89">
+        <v>0</v>
+      </c>
+      <c r="V89">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
         <v>442</v>
-      </c>
-      <c r="B89">
-        <v>1</v>
-      </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-      <c r="D89" t="s">
-        <v>443</v>
-      </c>
-      <c r="E89">
-        <v>1</v>
-      </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-      <c r="G89" t="s">
-        <v>399</v>
-      </c>
-      <c r="H89">
-        <v>1</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89" t="s">
-        <v>399</v>
-      </c>
-      <c r="K89">
-        <v>1</v>
-      </c>
-      <c r="L89">
-        <v>0</v>
-      </c>
-      <c r="M89" t="s">
-        <v>29</v>
-      </c>
-      <c r="N89" t="s">
-        <v>29</v>
-      </c>
-      <c r="O89" t="s">
-        <v>29</v>
-      </c>
-      <c r="P89">
-        <v>0</v>
-      </c>
-      <c r="Q89">
-        <v>0</v>
-      </c>
-      <c r="R89" t="s">
-        <v>29</v>
-      </c>
-      <c r="S89" t="s">
-        <v>29</v>
-      </c>
-      <c r="T89" t="s">
-        <v>29</v>
-      </c>
-      <c r="U89">
-        <v>0</v>
-      </c>
-      <c r="V89">
-        <v>0</v>
-      </c>
-      <c r="W89" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
+        <v>443</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90" t="s">
+        <v>444</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90" t="s">
         <v>445</v>
       </c>
-      <c r="B90">
-        <v>1</v>
-      </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90" t="s">
+        <v>445</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90" t="s">
         <v>446</v>
       </c>
-      <c r="E90">
-        <v>1</v>
-      </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-      <c r="G90" t="s">
+      <c r="N90" t="s">
         <v>447</v>
-      </c>
-      <c r="H90">
-        <v>1</v>
-      </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-      <c r="J90" t="s">
-        <v>447</v>
-      </c>
-      <c r="K90">
-        <v>1</v>
-      </c>
-      <c r="L90">
-        <v>0</v>
-      </c>
-      <c r="M90" t="s">
-        <v>448</v>
-      </c>
-      <c r="N90" t="s">
-        <v>449</v>
       </c>
       <c r="O90" t="s">
         <v>149</v>
@@ -15366,7 +15361,7 @@
         <v>29</v>
       </c>
       <c r="S90" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="T90" t="s">
         <v>149</v>
@@ -15378,12 +15373,12 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -15392,7 +15387,7 @@
         <v>0</v>
       </c>
       <c r="D91" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -15401,7 +15396,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -15410,7 +15405,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="K91">
         <v>1</v>
@@ -15449,12 +15444,12 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -15463,7 +15458,7 @@
         <v>0</v>
       </c>
       <c r="D92" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -15490,10 +15485,10 @@
         <v>0</v>
       </c>
       <c r="M92" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="N92" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="O92" t="s">
         <v>149</v>
@@ -15508,7 +15503,7 @@
         <v>29</v>
       </c>
       <c r="S92" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="T92" t="s">
         <v>149</v>
@@ -15520,12 +15515,12 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -15534,7 +15529,7 @@
         <v>0</v>
       </c>
       <c r="D93" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -15564,7 +15559,7 @@
         <v>29</v>
       </c>
       <c r="N93" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="O93" t="s">
         <v>60</v>
@@ -15579,7 +15574,7 @@
         <v>29</v>
       </c>
       <c r="S93" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="T93" t="s">
         <v>60</v>
@@ -15591,48 +15586,48 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
+        <v>462</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94" t="s">
+        <v>463</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94" t="s">
         <v>464</v>
       </c>
-      <c r="B94">
-        <v>1</v>
-      </c>
-      <c r="C94">
-        <v>0</v>
-      </c>
-      <c r="D94" t="s">
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94" t="s">
+        <v>464</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94" t="s">
         <v>465</v>
-      </c>
-      <c r="E94">
-        <v>1</v>
-      </c>
-      <c r="F94">
-        <v>0</v>
-      </c>
-      <c r="G94" t="s">
-        <v>466</v>
-      </c>
-      <c r="H94">
-        <v>1</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94" t="s">
-        <v>466</v>
-      </c>
-      <c r="K94">
-        <v>1</v>
-      </c>
-      <c r="L94">
-        <v>0</v>
-      </c>
-      <c r="M94" t="s">
-        <v>467</v>
       </c>
       <c r="N94" t="s">
         <v>291</v>
@@ -15647,10 +15642,10 @@
         <v>0</v>
       </c>
       <c r="R94" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="S94" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="T94" t="s">
         <v>149</v>
@@ -15662,12 +15657,12 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -15676,7 +15671,7 @@
         <v>0</v>
       </c>
       <c r="D95" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -15685,7 +15680,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -15694,7 +15689,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="K95">
         <v>1</v>
@@ -15733,48 +15728,48 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
+        <v>470</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96" t="s">
+        <v>471</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96" t="s">
         <v>472</v>
       </c>
-      <c r="B96">
-        <v>1</v>
-      </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-      <c r="D96" t="s">
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96" t="s">
+        <v>336</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96" t="s">
         <v>473</v>
-      </c>
-      <c r="E96">
-        <v>1</v>
-      </c>
-      <c r="F96">
-        <v>0</v>
-      </c>
-      <c r="G96" t="s">
-        <v>474</v>
-      </c>
-      <c r="H96">
-        <v>1</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-      <c r="J96" t="s">
-        <v>338</v>
-      </c>
-      <c r="K96">
-        <v>1</v>
-      </c>
-      <c r="L96">
-        <v>0</v>
-      </c>
-      <c r="M96" t="s">
-        <v>475</v>
       </c>
       <c r="N96" t="s">
         <v>192</v>
@@ -15804,51 +15799,51 @@
         <v>0</v>
       </c>
       <c r="W96" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
+        <v>475</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97" t="s">
+        <v>476</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97" t="s">
         <v>477</v>
       </c>
-      <c r="B97">
-        <v>1</v>
-      </c>
-      <c r="C97">
-        <v>0</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97" t="s">
+        <v>477</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97" t="s">
+        <v>29</v>
+      </c>
+      <c r="N97" t="s">
         <v>478</v>
-      </c>
-      <c r="E97">
-        <v>1</v>
-      </c>
-      <c r="F97">
-        <v>0</v>
-      </c>
-      <c r="G97" t="s">
-        <v>479</v>
-      </c>
-      <c r="H97">
-        <v>1</v>
-      </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-      <c r="J97" t="s">
-        <v>479</v>
-      </c>
-      <c r="K97">
-        <v>1</v>
-      </c>
-      <c r="L97">
-        <v>0</v>
-      </c>
-      <c r="M97" t="s">
-        <v>29</v>
-      </c>
-      <c r="N97" t="s">
-        <v>480</v>
       </c>
       <c r="O97" t="s">
         <v>48</v>
@@ -15875,12 +15870,12 @@
         <v>1</v>
       </c>
       <c r="W97" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -15889,7 +15884,7 @@
         <v>0</v>
       </c>
       <c r="D98" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -15916,10 +15911,10 @@
         <v>0</v>
       </c>
       <c r="M98" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="N98" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="O98" t="s">
         <v>40</v>
@@ -15946,119 +15941,119 @@
         <v>0</v>
       </c>
       <c r="W98" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
+        <v>485</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99" t="s">
+        <v>486</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99" t="s">
+        <v>144</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99" t="s">
         <v>487</v>
       </c>
-      <c r="B99">
-        <v>0</v>
-      </c>
-      <c r="C99">
-        <v>0</v>
-      </c>
-      <c r="D99" t="s">
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99" t="s">
+        <v>29</v>
+      </c>
+      <c r="N99" t="s">
+        <v>29</v>
+      </c>
+      <c r="O99" t="s">
+        <v>29</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99" t="s">
+        <v>29</v>
+      </c>
+      <c r="S99" t="s">
+        <v>29</v>
+      </c>
+      <c r="T99" t="s">
+        <v>29</v>
+      </c>
+      <c r="U99">
+        <v>0</v>
+      </c>
+      <c r="V99">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
         <v>488</v>
-      </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
-      <c r="G99" t="s">
-        <v>29</v>
-      </c>
-      <c r="H99">
-        <v>0</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
-      <c r="J99" t="s">
-        <v>489</v>
-      </c>
-      <c r="K99">
-        <v>0</v>
-      </c>
-      <c r="L99">
-        <v>0</v>
-      </c>
-      <c r="M99" t="s">
-        <v>29</v>
-      </c>
-      <c r="N99" t="s">
-        <v>29</v>
-      </c>
-      <c r="O99" t="s">
-        <v>29</v>
-      </c>
-      <c r="P99">
-        <v>0</v>
-      </c>
-      <c r="Q99">
-        <v>0</v>
-      </c>
-      <c r="R99" t="s">
-        <v>29</v>
-      </c>
-      <c r="S99" t="s">
-        <v>29</v>
-      </c>
-      <c r="T99" t="s">
-        <v>29</v>
-      </c>
-      <c r="U99">
-        <v>0</v>
-      </c>
-      <c r="V99">
-        <v>0</v>
-      </c>
-      <c r="W99" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
+        <v>489</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100" t="s">
+        <v>490</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100" t="s">
+        <v>445</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100" t="s">
+        <v>445</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100" t="s">
         <v>491</v>
-      </c>
-      <c r="B100">
-        <v>1</v>
-      </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-      <c r="D100" t="s">
-        <v>492</v>
-      </c>
-      <c r="E100">
-        <v>1</v>
-      </c>
-      <c r="F100">
-        <v>0</v>
-      </c>
-      <c r="G100" t="s">
-        <v>447</v>
-      </c>
-      <c r="H100">
-        <v>1</v>
-      </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
-      <c r="J100" t="s">
-        <v>447</v>
-      </c>
-      <c r="K100">
-        <v>1</v>
-      </c>
-      <c r="L100">
-        <v>0</v>
-      </c>
-      <c r="M100" t="s">
-        <v>493</v>
       </c>
       <c r="N100" t="s">
         <v>304</v>
@@ -16076,7 +16071,7 @@
         <v>29</v>
       </c>
       <c r="S100" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="T100" t="s">
         <v>60</v>
@@ -16088,12 +16083,12 @@
         <v>0</v>
       </c>
       <c r="W100" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -16102,7 +16097,7 @@
         <v>0</v>
       </c>
       <c r="D101" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -16129,10 +16124,10 @@
         <v>0</v>
       </c>
       <c r="M101" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="N101" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="O101" t="s">
         <v>40</v>
@@ -16159,12 +16154,12 @@
         <v>0</v>
       </c>
       <c r="W101" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -16230,83 +16225,83 @@
         <v>0</v>
       </c>
       <c r="W102" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
+        <v>500</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103" t="s">
+        <v>501</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103" t="s">
         <v>502</v>
       </c>
-      <c r="B103">
-        <v>1</v>
-      </c>
-      <c r="C103">
-        <v>0</v>
-      </c>
-      <c r="D103" t="s">
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103" t="s">
+        <v>502</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103" t="s">
         <v>503</v>
       </c>
-      <c r="E103">
-        <v>1</v>
-      </c>
-      <c r="F103">
-        <v>0</v>
-      </c>
-      <c r="G103" t="s">
+      <c r="N103" t="s">
         <v>504</v>
       </c>
-      <c r="H103">
-        <v>1</v>
-      </c>
-      <c r="I103">
-        <v>0</v>
-      </c>
-      <c r="J103" t="s">
+      <c r="O103" t="s">
+        <v>393</v>
+      </c>
+      <c r="P103">
+        <v>1</v>
+      </c>
+      <c r="Q103">
+        <v>0</v>
+      </c>
+      <c r="R103" t="s">
+        <v>503</v>
+      </c>
+      <c r="S103" t="s">
         <v>504</v>
       </c>
-      <c r="K103">
-        <v>1</v>
-      </c>
-      <c r="L103">
-        <v>0</v>
-      </c>
-      <c r="M103" t="s">
+      <c r="T103" t="s">
+        <v>393</v>
+      </c>
+      <c r="U103">
+        <v>1</v>
+      </c>
+      <c r="V103">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
         <v>505</v>
-      </c>
-      <c r="N103" t="s">
-        <v>506</v>
-      </c>
-      <c r="O103" t="s">
-        <v>395</v>
-      </c>
-      <c r="P103">
-        <v>1</v>
-      </c>
-      <c r="Q103">
-        <v>0</v>
-      </c>
-      <c r="R103" t="s">
-        <v>505</v>
-      </c>
-      <c r="S103" t="s">
-        <v>506</v>
-      </c>
-      <c r="T103" t="s">
-        <v>395</v>
-      </c>
-      <c r="U103">
-        <v>1</v>
-      </c>
-      <c r="V103">
-        <v>0</v>
-      </c>
-      <c r="W103" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -16315,7 +16310,7 @@
         <v>0</v>
       </c>
       <c r="D104" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -16324,7 +16319,7 @@
         <v>0</v>
       </c>
       <c r="G104" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -16333,7 +16328,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="K104">
         <v>1</v>
@@ -16372,51 +16367,51 @@
         <v>0</v>
       </c>
       <c r="W104" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
+        <v>509</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105" t="s">
+        <v>510</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105" t="s">
+        <v>435</v>
+      </c>
+      <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105" t="s">
+        <v>435</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105" t="s">
+        <v>29</v>
+      </c>
+      <c r="N105" t="s">
         <v>511</v>
-      </c>
-      <c r="B105">
-        <v>1</v>
-      </c>
-      <c r="C105">
-        <v>0</v>
-      </c>
-      <c r="D105" t="s">
-        <v>512</v>
-      </c>
-      <c r="E105">
-        <v>0</v>
-      </c>
-      <c r="F105">
-        <v>1</v>
-      </c>
-      <c r="G105" t="s">
-        <v>437</v>
-      </c>
-      <c r="H105">
-        <v>1</v>
-      </c>
-      <c r="I105">
-        <v>0</v>
-      </c>
-      <c r="J105" t="s">
-        <v>437</v>
-      </c>
-      <c r="K105">
-        <v>1</v>
-      </c>
-      <c r="L105">
-        <v>0</v>
-      </c>
-      <c r="M105" t="s">
-        <v>29</v>
-      </c>
-      <c r="N105" t="s">
-        <v>513</v>
       </c>
       <c r="O105" t="s">
         <v>117</v>
@@ -16443,12 +16438,12 @@
         <v>1</v>
       </c>
       <c r="W105" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -16457,7 +16452,7 @@
         <v>0</v>
       </c>
       <c r="D106" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -16514,31 +16509,31 @@
         <v>0</v>
       </c>
       <c r="W106" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
+        <v>516</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107" t="s">
+        <v>517</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107" t="s">
         <v>518</v>
       </c>
-      <c r="B107">
-        <v>1</v>
-      </c>
-      <c r="C107">
-        <v>0</v>
-      </c>
-      <c r="D107" t="s">
-        <v>519</v>
-      </c>
-      <c r="E107">
-        <v>1</v>
-      </c>
-      <c r="F107">
-        <v>0</v>
-      </c>
-      <c r="G107" t="s">
-        <v>520</v>
-      </c>
       <c r="H107">
         <v>1</v>
       </c>
@@ -16546,7 +16541,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="K107">
         <v>1</v>
@@ -16585,12 +16580,12 @@
         <v>0</v>
       </c>
       <c r="W107" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -16599,7 +16594,7 @@
         <v>0</v>
       </c>
       <c r="D108" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -16656,12 +16651,12 @@
         <v>0</v>
       </c>
       <c r="W108" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -16670,7 +16665,7 @@
         <v>0</v>
       </c>
       <c r="D109" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -16700,7 +16695,7 @@
         <v>29</v>
       </c>
       <c r="N109" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="O109" t="s">
         <v>28</v>
@@ -16715,7 +16710,7 @@
         <v>29</v>
       </c>
       <c r="S109" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="T109" t="s">
         <v>28</v>
@@ -16727,54 +16722,54 @@
         <v>0</v>
       </c>
       <c r="W109" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
+        <v>527</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110" t="s">
+        <v>528</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110" t="s">
         <v>529</v>
       </c>
-      <c r="B110">
-        <v>1</v>
-      </c>
-      <c r="C110">
-        <v>0</v>
-      </c>
-      <c r="D110" t="s">
+      <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110" t="s">
+        <v>529</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110" t="s">
         <v>530</v>
       </c>
-      <c r="E110">
-        <v>1</v>
-      </c>
-      <c r="F110">
-        <v>0</v>
-      </c>
-      <c r="G110" t="s">
+      <c r="N110" t="s">
         <v>531</v>
       </c>
-      <c r="H110">
-        <v>1</v>
-      </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
-      <c r="J110" t="s">
-        <v>531</v>
-      </c>
-      <c r="K110">
-        <v>1</v>
-      </c>
-      <c r="L110">
-        <v>0</v>
-      </c>
-      <c r="M110" t="s">
-        <v>532</v>
-      </c>
-      <c r="N110" t="s">
-        <v>533</v>
-      </c>
       <c r="O110" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="P110">
         <v>1</v>
@@ -16786,7 +16781,7 @@
         <v>29</v>
       </c>
       <c r="S110" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="T110" t="s">
         <v>54</v>
@@ -16798,51 +16793,51 @@
         <v>0</v>
       </c>
       <c r="W110" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
+        <v>533</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111" t="s">
+        <v>534</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111" t="s">
+        <v>502</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111" t="s">
+        <v>502</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111" t="s">
+        <v>29</v>
+      </c>
+      <c r="N111" t="s">
         <v>535</v>
-      </c>
-      <c r="B111">
-        <v>1</v>
-      </c>
-      <c r="C111">
-        <v>0</v>
-      </c>
-      <c r="D111" t="s">
-        <v>536</v>
-      </c>
-      <c r="E111">
-        <v>1</v>
-      </c>
-      <c r="F111">
-        <v>0</v>
-      </c>
-      <c r="G111" t="s">
-        <v>504</v>
-      </c>
-      <c r="H111">
-        <v>1</v>
-      </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
-      <c r="J111" t="s">
-        <v>504</v>
-      </c>
-      <c r="K111">
-        <v>1</v>
-      </c>
-      <c r="L111">
-        <v>0</v>
-      </c>
-      <c r="M111" t="s">
-        <v>29</v>
-      </c>
-      <c r="N111" t="s">
-        <v>537</v>
       </c>
       <c r="O111" t="s">
         <v>140</v>
@@ -16869,12 +16864,12 @@
         <v>0</v>
       </c>
       <c r="W111" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -16883,7 +16878,7 @@
         <v>0</v>
       </c>
       <c r="D112" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -16910,10 +16905,10 @@
         <v>0</v>
       </c>
       <c r="M112" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="N112" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="O112" t="s">
         <v>40</v>
@@ -16928,7 +16923,7 @@
         <v>29</v>
       </c>
       <c r="S112" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="T112" t="s">
         <v>40</v>
@@ -16940,12 +16935,12 @@
         <v>0</v>
       </c>
       <c r="W112" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="113" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -16954,7 +16949,7 @@
         <v>0</v>
       </c>
       <c r="D113" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -16981,7 +16976,7 @@
         <v>0</v>
       </c>
       <c r="M113" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="N113" t="s">
         <v>216</v>
@@ -17011,12 +17006,12 @@
         <v>0</v>
       </c>
       <c r="W113" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="114" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -17025,7 +17020,7 @@
         <v>0</v>
       </c>
       <c r="D114" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -17052,10 +17047,10 @@
         <v>0</v>
       </c>
       <c r="M114" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="N114" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O114" t="s">
         <v>48</v>
@@ -17067,10 +17062,10 @@
         <v>0</v>
       </c>
       <c r="R114" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="S114" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="T114" t="s">
         <v>48</v>
@@ -17082,51 +17077,51 @@
         <v>0</v>
       </c>
       <c r="W114" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="115" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
+        <v>550</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115" t="s">
+        <v>551</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115" t="s">
+        <v>445</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115" t="s">
+        <v>445</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115" t="s">
         <v>552</v>
       </c>
-      <c r="B115">
-        <v>1</v>
-      </c>
-      <c r="C115">
-        <v>0</v>
-      </c>
-      <c r="D115" t="s">
+      <c r="N115" t="s">
         <v>553</v>
-      </c>
-      <c r="E115">
-        <v>1</v>
-      </c>
-      <c r="F115">
-        <v>0</v>
-      </c>
-      <c r="G115" t="s">
-        <v>447</v>
-      </c>
-      <c r="H115">
-        <v>1</v>
-      </c>
-      <c r="I115">
-        <v>0</v>
-      </c>
-      <c r="J115" t="s">
-        <v>447</v>
-      </c>
-      <c r="K115">
-        <v>1</v>
-      </c>
-      <c r="L115">
-        <v>0</v>
-      </c>
-      <c r="M115" t="s">
-        <v>554</v>
-      </c>
-      <c r="N115" t="s">
-        <v>555</v>
       </c>
       <c r="O115" t="s">
         <v>296</v>
@@ -17138,10 +17133,10 @@
         <v>0</v>
       </c>
       <c r="R115" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="S115" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="T115" t="s">
         <v>296</v>
@@ -17153,12 +17148,12 @@
         <v>0</v>
       </c>
       <c r="W115" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="116" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -17167,7 +17162,7 @@
         <v>0</v>
       </c>
       <c r="D116" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -17197,7 +17192,7 @@
         <v>29</v>
       </c>
       <c r="N116" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="O116" t="s">
         <v>28</v>
@@ -17224,30 +17219,30 @@
         <v>0</v>
       </c>
       <c r="W116" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="117" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
+        <v>559</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117" t="s">
+        <v>560</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117" t="s">
         <v>561</v>
-      </c>
-      <c r="B117">
-        <v>1</v>
-      </c>
-      <c r="C117">
-        <v>0</v>
-      </c>
-      <c r="D117" t="s">
-        <v>562</v>
-      </c>
-      <c r="E117">
-        <v>1</v>
-      </c>
-      <c r="F117">
-        <v>0</v>
-      </c>
-      <c r="G117" t="s">
-        <v>563</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -17295,12 +17290,12 @@
         <v>0</v>
       </c>
       <c r="W117" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="118" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -17309,7 +17304,7 @@
         <v>0</v>
       </c>
       <c r="D118" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -17336,10 +17331,10 @@
         <v>0</v>
       </c>
       <c r="M118" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="N118" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="O118" t="s">
         <v>149</v>
@@ -17351,10 +17346,10 @@
         <v>0</v>
       </c>
       <c r="R118" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="S118" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="T118" t="s">
         <v>149</v>
@@ -17366,12 +17361,12 @@
         <v>0</v>
       </c>
       <c r="W118" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="119" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -17380,7 +17375,7 @@
         <v>0</v>
       </c>
       <c r="D119" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -17437,12 +17432,12 @@
         <v>1</v>
       </c>
       <c r="W119" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="120" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -17451,7 +17446,7 @@
         <v>0</v>
       </c>
       <c r="D120" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -17508,12 +17503,12 @@
         <v>0</v>
       </c>
       <c r="W120" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="121" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -17522,7 +17517,7 @@
         <v>0</v>
       </c>
       <c r="D121" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -17549,10 +17544,10 @@
         <v>0</v>
       </c>
       <c r="M121" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="N121" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="O121" t="s">
         <v>275</v>
@@ -17567,7 +17562,7 @@
         <v>29</v>
       </c>
       <c r="S121" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T121" t="s">
         <v>275</v>
@@ -17579,83 +17574,83 @@
         <v>0</v>
       </c>
       <c r="W121" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="122" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
+        <v>579</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122" t="s">
+        <v>580</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122" t="s">
         <v>581</v>
       </c>
-      <c r="B122">
-        <v>0</v>
-      </c>
-      <c r="C122">
-        <v>0</v>
-      </c>
-      <c r="D122" t="s">
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122" t="s">
+        <v>581</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122" t="s">
+        <v>29</v>
+      </c>
+      <c r="N122" t="s">
+        <v>29</v>
+      </c>
+      <c r="O122" t="s">
+        <v>29</v>
+      </c>
+      <c r="P122">
+        <v>0</v>
+      </c>
+      <c r="Q122">
+        <v>0</v>
+      </c>
+      <c r="R122" t="s">
+        <v>29</v>
+      </c>
+      <c r="S122" t="s">
+        <v>29</v>
+      </c>
+      <c r="T122" t="s">
+        <v>29</v>
+      </c>
+      <c r="U122">
+        <v>0</v>
+      </c>
+      <c r="V122">
+        <v>0</v>
+      </c>
+      <c r="W122" t="s">
         <v>582</v>
-      </c>
-      <c r="E122">
-        <v>0</v>
-      </c>
-      <c r="F122">
-        <v>0</v>
-      </c>
-      <c r="G122" t="s">
-        <v>29</v>
-      </c>
-      <c r="H122">
-        <v>0</v>
-      </c>
-      <c r="I122">
-        <v>0</v>
-      </c>
-      <c r="J122" t="s">
-        <v>583</v>
-      </c>
-      <c r="K122">
-        <v>0</v>
-      </c>
-      <c r="L122">
-        <v>0</v>
-      </c>
-      <c r="M122" t="s">
-        <v>29</v>
-      </c>
-      <c r="N122" t="s">
-        <v>29</v>
-      </c>
-      <c r="O122" t="s">
-        <v>29</v>
-      </c>
-      <c r="P122">
-        <v>0</v>
-      </c>
-      <c r="Q122">
-        <v>0</v>
-      </c>
-      <c r="R122" t="s">
-        <v>29</v>
-      </c>
-      <c r="S122" t="s">
-        <v>29</v>
-      </c>
-      <c r="T122" t="s">
-        <v>29</v>
-      </c>
-      <c r="U122">
-        <v>0</v>
-      </c>
-      <c r="V122">
-        <v>0</v>
-      </c>
-      <c r="W122" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="123" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -17664,7 +17659,7 @@
         <v>0</v>
       </c>
       <c r="D123" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -17709,7 +17704,7 @@
         <v>29</v>
       </c>
       <c r="S123" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="T123" t="s">
         <v>28</v>
@@ -17721,12 +17716,12 @@
         <v>0</v>
       </c>
       <c r="W123" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="124" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -17744,7 +17739,7 @@
         <v>1</v>
       </c>
       <c r="G124" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -17762,10 +17757,10 @@
         <v>0</v>
       </c>
       <c r="M124" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="N124" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="O124" t="s">
         <v>28</v>
@@ -17780,7 +17775,7 @@
         <v>29</v>
       </c>
       <c r="S124" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="T124" t="s">
         <v>28</v>
@@ -17792,12 +17787,12 @@
         <v>0</v>
       </c>
       <c r="W124" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="125" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -17806,7 +17801,7 @@
         <v>0</v>
       </c>
       <c r="D125" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -17833,42 +17828,42 @@
         <v>0</v>
       </c>
       <c r="M125" t="s">
+        <v>591</v>
+      </c>
+      <c r="N125" t="s">
+        <v>592</v>
+      </c>
+      <c r="O125" t="s">
         <v>593</v>
       </c>
-      <c r="N125" t="s">
+      <c r="P125">
+        <v>1</v>
+      </c>
+      <c r="Q125">
+        <v>0</v>
+      </c>
+      <c r="R125" t="s">
+        <v>29</v>
+      </c>
+      <c r="S125" t="s">
+        <v>29</v>
+      </c>
+      <c r="T125" t="s">
+        <v>29</v>
+      </c>
+      <c r="U125">
+        <v>0</v>
+      </c>
+      <c r="V125">
+        <v>1</v>
+      </c>
+      <c r="W125" t="s">
         <v>594</v>
-      </c>
-      <c r="O125" t="s">
-        <v>595</v>
-      </c>
-      <c r="P125">
-        <v>1</v>
-      </c>
-      <c r="Q125">
-        <v>0</v>
-      </c>
-      <c r="R125" t="s">
-        <v>29</v>
-      </c>
-      <c r="S125" t="s">
-        <v>29</v>
-      </c>
-      <c r="T125" t="s">
-        <v>29</v>
-      </c>
-      <c r="U125">
-        <v>0</v>
-      </c>
-      <c r="V125">
-        <v>1</v>
-      </c>
-      <c r="W125" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="126" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -17877,7 +17872,7 @@
         <v>0</v>
       </c>
       <c r="D126" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -17886,7 +17881,7 @@
         <v>0</v>
       </c>
       <c r="G126" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -17895,7 +17890,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="K126">
         <v>1</v>
@@ -17934,51 +17929,51 @@
         <v>0</v>
       </c>
       <c r="W126" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="127" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
+        <v>598</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127" t="s">
+        <v>599</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127" t="s">
+        <v>330</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127" t="s">
+        <v>330</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127" t="s">
+        <v>29</v>
+      </c>
+      <c r="N127" t="s">
         <v>600</v>
-      </c>
-      <c r="B127">
-        <v>1</v>
-      </c>
-      <c r="C127">
-        <v>0</v>
-      </c>
-      <c r="D127" t="s">
-        <v>601</v>
-      </c>
-      <c r="E127">
-        <v>1</v>
-      </c>
-      <c r="F127">
-        <v>0</v>
-      </c>
-      <c r="G127" t="s">
-        <v>331</v>
-      </c>
-      <c r="H127">
-        <v>1</v>
-      </c>
-      <c r="I127">
-        <v>0</v>
-      </c>
-      <c r="J127" t="s">
-        <v>331</v>
-      </c>
-      <c r="K127">
-        <v>1</v>
-      </c>
-      <c r="L127">
-        <v>0</v>
-      </c>
-      <c r="M127" t="s">
-        <v>29</v>
-      </c>
-      <c r="N127" t="s">
-        <v>602</v>
       </c>
       <c r="O127" t="s">
         <v>54</v>
@@ -18005,12 +18000,12 @@
         <v>0</v>
       </c>
       <c r="W127" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="128" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -18076,7 +18071,7 @@
         <v>0</v>
       </c>
       <c r="W128" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
   </sheetData>

--- a/whowherewhen/whowhenwhere_test_result_kecelakaan_evaluated.xlsx
+++ b/whowherewhen/whowhenwhere_test_result_kecelakaan_evaluated.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PetaKabar\whowherewhen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1D445A-FAB9-4D1A-AC7F-754AC5BDD9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD7E1BF-6588-43DB-8887-04D6EAC33C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="604">
   <si>
     <t>who_n</t>
   </si>
@@ -8633,6 +8644,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -8670,12 +8682,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8980,8 +8991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q47" sqref="Q47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11657,13 +11668,13 @@
         <v>29</v>
       </c>
       <c r="O38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38" t="s">
         <v>212</v>
@@ -12271,8 +12282,8 @@
       <c r="F47">
         <v>0</v>
       </c>
-      <c r="G47" s="2">
-        <v>44929</v>
+      <c r="G47" t="s">
+        <v>197</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -12299,10 +12310,10 @@
         <v>40</v>
       </c>
       <c r="P47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" t="s">
         <v>29</v>
@@ -14973,7 +14984,7 @@
         <v>358</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85">
         <v>0</v>
